--- a/excel/circuitdesign.xlsx
+++ b/excel/circuitdesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5710BCAD-6F7D-49B6-94E5-44D73C500ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561B260-D291-4F0F-A90E-CE870F19604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8370" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="DRV8874" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>RIPROPI</t>
     <phoneticPr fontId="1"/>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>5V SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,9 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -361,6 +370,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,11 +772,11 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">C3*E3/(D3+E3)</f>
+        <f t="shared" ref="G3:G5" si="0">C3*E3/(D3+E3)</f>
         <v>2.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="1">G3/(A3*POWER(10,3)*B3*POWER(10,-6))</f>
+        <f t="shared" ref="H3:H5" si="1">G3/(A3*POWER(10,3)*B3*POWER(10,-6))</f>
         <v>4.6296296296296306</v>
       </c>
     </row>
@@ -930,194 +942,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="8"/>
+    <col min="3" max="3" width="6.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9">
+      <c r="B3" s="4"/>
+      <c r="C3" s="8">
         <v>6.5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>22.9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1.6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>3.3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>POWER(10,3)*D3*POWER(10,-9)/(C3*POWER(10,-6))</f>
         <v>3.5230769230769234</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>IF(NOT(ISBLANK(B3)),ROUNDUP(F3/(H3*POWER(10,-3)),-2),F3/(H3*POWER(10,-3)))</f>
         <v>936.68122270742344</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f>I3*10</f>
         <v>9366.8122270742351</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>F3/(H3*POWER(10,-3))</f>
         <v>936.68122270742344</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <f>I3*(F3-E3)/E3</f>
         <v>995.22379912663723</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f>E3/(G3*POWER(10,-6))</f>
         <v>320000.00000000006</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f>MAX(J3:L3)</f>
         <v>9366.8122270742351</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f>M3</f>
         <v>320000.00000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1000</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>6.5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>22.9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1.6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>3.3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>POWER(10,3)*D4*POWER(10,-9)/(C4*POWER(10,-6))</f>
         <v>3.5230769230769234</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>IF(NOT(ISBLANK(B4)),B4,F4/(H4*POWER(10,-3)))</f>
         <v>1000</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>I4*10</f>
         <v>10000</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f>F4/(H4*POWER(10,-3))</f>
         <v>936.68122270742344</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f>I4*(F4-E4)/E4</f>
         <v>1062.4999999999998</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f>E4/(G4*POWER(10,-6))</f>
         <v>320000.00000000006</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" ref="N4:N7" si="0">MAX(J4:L4)</f>
         <v>10000</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f>M4</f>
         <v>320000.00000000006</v>
       </c>
@@ -1126,147 +1138,147 @@
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>30</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1.6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>POWER(10,3)*D5*POWER(10,-9)/(C5*POWER(10,-6))</f>
         <v>15.000000000000002</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>100</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J7" si="1">I5*10</f>
         <v>1000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" ref="K5:K7" si="2">F5/(H5*POWER(10,-3))</f>
         <v>799.99999999999989</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f>I5*(F5-E5)/E5</f>
         <v>650</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" ref="M5:M7" si="3">E5/(G5*POWER(10,-6))</f>
         <v>320000.00000000006</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" ref="O5:O7" si="4">M5</f>
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>30</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1.6</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>12</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f>POWER(10,3)*D6*POWER(10,-9)/(C6*POWER(10,-6))</f>
         <v>15.000000000000002</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" ref="I6:I7" si="5">IF(NOT(ISBLANK(B6)),ROUNDUP(F6/(H6*POWER(10,-3)),-2),F6/(H6*POWER(10,-3)))</f>
         <v>799.99999999999989</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>7999.9999999999991</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="2"/>
         <v>799.99999999999989</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f>I6*(F6-E6)/E6</f>
         <v>5200</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="3"/>
         <v>320000.00000000006</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="0"/>
         <v>7999.9999999999991</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="4"/>
         <v>320000.00000000006</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>30</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1.6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f>POWER(10,3)*D7*POWER(10,-9)/(C7*POWER(10,-6))</f>
         <v>15.000000000000002</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="5"/>
         <v>799.99999999999989</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="1"/>
         <v>7999.9999999999991</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f t="shared" si="2"/>
         <v>799.99999999999989</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f>I7*(F7-E7)/E7</f>
         <v>5200</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="3"/>
         <v>320000.00000000006</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f t="shared" si="0"/>
         <v>7999.9999999999991</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <f t="shared" si="4"/>
         <v>320000.00000000006</v>
       </c>
@@ -1284,15 +1296,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580114E-D765-424B-92AB-0B54B27D6A60}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1311,8 +1326,17 @@
       <c r="F1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1326,8 +1350,19 @@
         <f>36*2</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f>2*POWER(10,-6)</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K2">
+        <f>I2/J2</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1345,7 +1380,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>243.96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1419,7 +1454,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1428,7 +1463,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -1436,7 +1471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>SUM(B2:B13)</f>
         <v>997.80000000000007</v>
@@ -1465,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C225FA-6CCE-4AFD-9DB0-C1BE56959718}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/excel/circuitdesign.xlsx
+++ b/excel/circuitdesign.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561B260-D291-4F0F-A90E-CE870F19604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5207C435-8F55-4A8D-9A78-015F27EE02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
+    <workbookView xWindow="3660" yWindow="2730" windowWidth="14670" windowHeight="8325" firstSheet="3" activeTab="4" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="DRV8874" sheetId="1" r:id="rId1"/>
     <sheet name="FET" sheetId="2" r:id="rId2"/>
     <sheet name="Current" sheetId="3" r:id="rId3"/>
-    <sheet name="LED Resistor" sheetId="4" r:id="rId4"/>
+    <sheet name="PowerLoss" sheetId="5" r:id="rId4"/>
+    <sheet name="LED Resistor" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>RIPROPI</t>
     <phoneticPr fontId="1"/>
@@ -185,18 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RGBR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RGBG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RGBB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SML31UT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,6 +277,115 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-03978</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-03984</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-06416</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の電流値 mA（Vf / R）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>デンリュウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APTF1616LSEEZGKQBKC</t>
+  </si>
+  <si>
+    <t>all (A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力電圧</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力電圧</t>
+    <rPh sb="0" eb="4">
+      <t>シュツリョクデンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力電流</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損失電力</t>
+    <rPh sb="0" eb="4">
+      <t>ソンシツデンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT1963EST-3.3#PBF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDI1117-3.3U</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1298,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580114E-D765-424B-92AB-0B54B27D6A60}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1327,24 +1425,24 @@
         <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>6.2</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <f>36*2</f>
@@ -1364,7 +1462,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <f>20*16</f>
@@ -1373,7 +1471,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <f>330*16</f>
@@ -1382,7 +1480,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1390,13 +1488,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1404,7 +1502,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>240</v>
@@ -1412,7 +1510,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <f>1000*4*3.3/10000+20*4</f>
@@ -1421,7 +1519,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <f>1000*12*3.3/10000+20*12</f>
@@ -1430,15 +1528,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="E10">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <f>330*2</f>
@@ -1447,7 +1545,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <f>330*2</f>
@@ -1456,7 +1554,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <f>1000*4*3.3/10000</f>
@@ -1465,16 +1563,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>SUM(B2:B13)</f>
-        <v>997.80000000000007</v>
+        <v>984.80000000000007</v>
       </c>
       <c r="C16">
         <f>SUM(C2:C13)*0.001</f>
@@ -1482,11 +1583,15 @@
       </c>
       <c r="D16">
         <f>B16+C16</f>
-        <v>1004.4000000000001</v>
+        <v>991.40000000000009</v>
       </c>
       <c r="E16">
         <f>SUM(E2:E13)</f>
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <f>(D16+E16)*POWER(10,-3)</f>
+        <v>1.0784</v>
       </c>
     </row>
   </sheetData>
@@ -1497,214 +1602,364 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B126E93-5456-44D2-8C37-B55DAB589CAF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C225FA-6CCE-4AFD-9DB0-C1BE56959718}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>(C2-D2)/(E2*POWER(10,-3))</f>
+        <v>1600</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <f>POWER(10,3)*(C2-D2)/G2</f>
+        <v>2.1333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2.65</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="0">(C3-D3)/(E3*POWER(10,-3))</f>
+        <v>1175</v>
+      </c>
+      <c r="G3">
+        <v>1200</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="1">POWER(10,3)*(C3-D3)/G3</f>
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2.65</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1175</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
         <v>3.3</v>
       </c>
-      <c r="C2">
-        <v>1.8</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>(B2-C2)/(D2*POWER(10,-3))</f>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="F2">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>3.3</v>
-      </c>
-      <c r="C3">
-        <v>2.65</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">(B3-C3)/(D3*POWER(10,-3))</f>
-        <v>324.99999999999994</v>
-      </c>
-      <c r="F3">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>3.3</v>
-      </c>
-      <c r="C4">
-        <v>2.65</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>324.99999999999994</v>
-      </c>
-      <c r="F4">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>3.3</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>79.999999999999986</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.8780487804878039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="1">(B6-C6)/(D6*POWER(10,-3))</f>
+      <c r="F6">
+        <f t="shared" ref="F6" si="2">(C6-D6)/(E6*POWER(10,-3))</f>
         <v>420</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>470</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.4680851063829783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.1333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
         <v>3.3</v>
       </c>
-      <c r="C7">
-        <v>1.8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="D8">
+        <v>1.9</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="F7">
+        <v>280</v>
+      </c>
+      <c r="G8">
+        <v>270</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.1851851851851851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1.9</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="G9">
         <v>680</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E8" t="e">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4.5588235294117645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1.9</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E9" t="e">
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E15" t="e">
-        <f t="shared" si="0"/>
+      <c r="H15" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/circuitdesign.xlsx
+++ b/excel/circuitdesign.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5207C435-8F55-4A8D-9A78-015F27EE02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45624A-2B62-43D5-9265-56C899B611E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2730" windowWidth="14670" windowHeight="8325" firstSheet="3" activeTab="4" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="2" activeTab="3" xr2:uid="{FC0DF866-D6CB-42B8-84A7-28A7BB2CE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="DRV8874" sheetId="1" r:id="rId1"/>
     <sheet name="FET" sheetId="2" r:id="rId2"/>
     <sheet name="Current" sheetId="3" r:id="rId3"/>
-    <sheet name="PowerLoss" sheetId="5" r:id="rId4"/>
-    <sheet name="LED Resistor" sheetId="4" r:id="rId5"/>
+    <sheet name="SensorPosition" sheetId="6" r:id="rId4"/>
+    <sheet name="PowerLoss" sheetId="5" r:id="rId5"/>
+    <sheet name="LED Resistor" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>RIPROPI</t>
     <phoneticPr fontId="1"/>
@@ -386,6 +387,34 @@
   </si>
   <si>
     <t>LDI1117-3.3U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎</t>
+    <rPh sb="0" eb="1">
+      <t>トラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎抵抗</t>
+    <rPh sb="0" eb="1">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D抵抗</t>
+    <rPh sb="1" eb="3">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1396,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580114E-D765-424B-92AB-0B54B27D6A60}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H7:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1602,6 +1631,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C212C9-C972-4871-85BE-C6CECE8FF63B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B126E93-5456-44D2-8C37-B55DAB589CAF}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1644,11 +1704,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C225FA-6CCE-4AFD-9DB0-C1BE56959718}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
